--- a/Costs.xlsx
+++ b/Costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebth\Desktop\p-ktane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C070F480-3939-41EF-97C8-CCC3B09BB665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0ED26C-CD87-49A8-A2A0-DB06071E4C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3954815-CC7F-49C4-A825-EC1B121FD995}"/>
+    <workbookView xWindow="30645" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{D3954815-CC7F-49C4-A825-EC1B121FD995}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Item</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>Total paid by Laurynas:</t>
+  </si>
+  <si>
+    <t>Digikey Order</t>
+  </si>
+  <si>
+    <t>http://www.digikey.dk</t>
+  </si>
+  <si>
+    <t>Digikey Order Import Tax</t>
   </si>
 </sst>
 </file>
@@ -456,7 +465,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,16 +505,32 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>415.95</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>104</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -603,7 +628,7 @@
       </c>
       <c r="B22">
         <f>SUMIF(D2:D19, "Sebastian", C2:C19)</f>
-        <v>196</v>
+        <v>715.95</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,8 +643,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{67AA5467-0E3A-445B-BCEB-9E0CF3B56060}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{A242AD87-2250-456C-A528-2A7921F22FF6}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{C3791445-29A8-4654-A9FD-1EB5652370E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Costs.xlsx
+++ b/Costs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebth\Desktop\p-ktane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0ED26C-CD87-49A8-A2A0-DB06071E4C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94D3291-2AEF-4835-ABCE-727D5CAD3C6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30645" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{D3954815-CC7F-49C4-A825-EC1B121FD995}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Item</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>Digikey Order Import Tax</t>
+  </si>
+  <si>
+    <t>AliExpress simon says switches</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32833573067.html?spm=a2g0s.9042311.0.0.412d4c4dSjG8y1</t>
+  </si>
+  <si>
+    <t>PAID</t>
   </si>
 </sst>
 </file>
@@ -142,11 +151,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -462,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC4248F-9F6A-4CD4-BD77-4F2ED1C96AF0}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,10 +543,18 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>116</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -628,7 +646,7 @@
       </c>
       <c r="B22">
         <f>SUMIF(D2:D19, "Sebastian", C2:C19)</f>
-        <v>715.95</v>
+        <v>831.95</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -638,6 +656,15 @@
       <c r="B23">
         <f>SUMIF(D2:D19, "Laurynas", C2:C19)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f>B22/2</f>
+        <v>415.97500000000002</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -645,8 +672,9 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{67AA5467-0E3A-445B-BCEB-9E0CF3B56060}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{A242AD87-2250-456C-A528-2A7921F22FF6}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{C3791445-29A8-4654-A9FD-1EB5652370E7}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{53347FB7-4636-415B-84FC-8C142D789F70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>